--- a/app/Отчеты/report_bills.xlsx
+++ b/app/Отчеты/report_bills.xlsx
@@ -205,10 +205,6 @@
     <t>Сведения о показаниях счетчиков:</t>
   </si>
   <si>
-    <t xml:space="preserve">г.Иваново ул.Куконковых д.142 п.4 оф. Оплату произвести до 31  числа текущего месяца.                                                                            
-Тел.(Факс) офиса: 56-32-64. В случае аварии звонить по тел.:  8-910-989-59-84 (Пырх Л.И.)                                                     </t>
-  </si>
-  <si>
     <r>
       <t>${lc.saldo.</t>
     </r>
@@ -244,6 +240,10 @@
       </rPr>
       <t>}</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">г.Иваново ул.Куконковых д.142 п.4 оф. Оплату произвести до ${lc.payDay}.                                                                            
+Тел.(Факс) офиса: 56-32-64. В случае аварии звонить по тел.:  8-910-989-59-84 (Пырх Л.И.)                                                     </t>
   </si>
 </sst>
 </file>
@@ -374,7 +374,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -657,21 +657,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -730,6 +715,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -787,7 +798,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
@@ -840,17 +851,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="5" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="5" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -869,7 +880,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -927,53 +938,71 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1420,10 +1449,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S36"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1463,14 +1492,14 @@
         <v>0</v>
       </c>
       <c r="L2" s="5"/>
-      <c r="M2" s="99" t="s">
+      <c r="M2" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3"/>
@@ -1495,10 +1524,10 @@
       <c r="P3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="101" t="s">
+      <c r="Q3" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="101"/>
+      <c r="R3" s="107"/>
     </row>
     <row r="4" spans="1:18" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
@@ -1673,16 +1702,16 @@
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11" s="29"/>
-      <c r="K11" s="104" t="s">
+      <c r="K11" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="L11" s="104"/>
-      <c r="M11" s="104"/>
-      <c r="N11" s="104"/>
-      <c r="O11" s="104"/>
-      <c r="P11" s="104"/>
-      <c r="Q11" s="104"/>
-      <c r="R11" s="104"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="110"/>
+      <c r="N11" s="110"/>
+      <c r="O11" s="110"/>
+      <c r="P11" s="110"/>
+      <c r="Q11" s="110"/>
+      <c r="R11" s="110"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -1731,28 +1760,28 @@
         <v>16</v>
       </c>
       <c r="B14" s="12"/>
-      <c r="C14" s="102" t="s">
+      <c r="C14" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
       <c r="I14" s="21"/>
       <c r="J14" s="29"/>
       <c r="K14" s="12" t="s">
         <v>16</v>
       </c>
       <c r="L14" s="12"/>
-      <c r="M14" s="102" t="s">
+      <c r="M14" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="102"/>
-      <c r="O14" s="102"/>
-      <c r="P14" s="102"/>
-      <c r="Q14" s="102"/>
-      <c r="R14" s="102"/>
+      <c r="N14" s="108"/>
+      <c r="O14" s="108"/>
+      <c r="P14" s="108"/>
+      <c r="Q14" s="108"/>
+      <c r="R14" s="108"/>
     </row>
     <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
@@ -1765,10 +1794,10 @@
       <c r="F15" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="103" t="s">
+      <c r="G15" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="103"/>
+      <c r="H15" s="109"/>
       <c r="I15" s="39"/>
       <c r="J15" s="40"/>
       <c r="K15" s="41"/>
@@ -1781,10 +1810,10 @@
       <c r="P15" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="103" t="s">
+      <c r="Q15" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="R15" s="103"/>
+      <c r="R15" s="109"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
@@ -1817,26 +1846,26 @@
     <row r="17" spans="1:19" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
-      <c r="C17" s="89" t="s">
+      <c r="C17" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
       <c r="I17" s="45"/>
       <c r="J17" s="40"/>
       <c r="K17" s="44"/>
       <c r="L17" s="44"/>
-      <c r="M17" s="89" t="s">
+      <c r="M17" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="N17" s="89"/>
-      <c r="O17" s="89"/>
-      <c r="P17" s="89"/>
-      <c r="Q17" s="89"/>
-      <c r="R17" s="89"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="95"/>
     </row>
     <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
@@ -1994,10 +2023,10 @@
     </row>
     <row r="24" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="52"/>
-      <c r="B24" s="93" t="s">
+      <c r="B24" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="94"/>
+      <c r="C24" s="100"/>
       <c r="D24" s="53" t="s">
         <v>25</v>
       </c>
@@ -2016,10 +2045,10 @@
       <c r="I24" s="55"/>
       <c r="J24" s="40"/>
       <c r="K24" s="52"/>
-      <c r="L24" s="93" t="s">
+      <c r="L24" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="M24" s="94"/>
+      <c r="M24" s="100"/>
       <c r="N24" s="53" t="s">
         <v>25</v>
       </c>
@@ -2065,10 +2094,10 @@
       <c r="A26" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="95" t="s">
+      <c r="B26" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="96"/>
+      <c r="C26" s="102"/>
       <c r="D26" s="62" t="s">
         <v>34</v>
       </c>
@@ -2089,10 +2118,10 @@
       <c r="K26" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="L26" s="97" t="s">
+      <c r="L26" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="M26" s="98"/>
+      <c r="M26" s="104"/>
       <c r="N26" s="62" t="s">
         <v>34</v>
       </c>
@@ -2133,38 +2162,38 @@
     </row>
     <row r="28" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="67"/>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="91"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="85" t="s">
+      <c r="C28" s="97"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="79" t="s">
         <v>40</v>
       </c>
       <c r="F28" s="68"/>
-      <c r="G28" s="86" t="s">
-        <v>58</v>
-      </c>
-      <c r="H28" s="86" t="s">
+      <c r="G28" s="80" t="s">
         <v>57</v>
+      </c>
+      <c r="H28" s="80" t="s">
+        <v>56</v>
       </c>
       <c r="I28" s="65"/>
       <c r="J28" s="40"/>
       <c r="K28" s="67"/>
-      <c r="L28" s="90" t="s">
+      <c r="L28" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="M28" s="91"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="85" t="s">
+      <c r="M28" s="97"/>
+      <c r="N28" s="98"/>
+      <c r="O28" s="79" t="s">
         <v>40</v>
       </c>
       <c r="P28" s="68"/>
-      <c r="Q28" s="86" t="s">
-        <v>58</v>
-      </c>
-      <c r="R28" s="86" t="s">
+      <c r="Q28" s="80" t="s">
         <v>57</v>
+      </c>
+      <c r="R28" s="80" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2187,124 +2216,124 @@
       <c r="Q29" s="65"/>
       <c r="R29" s="65"/>
     </row>
-    <row r="30" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
-      <c r="B30" s="70" t="s">
+    <row r="30" spans="1:19" s="78" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="75"/>
+      <c r="B30" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="78" t="s">
+      <c r="C30" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="78" t="s">
+      <c r="D30" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="71" t="s">
+      <c r="E30" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="70" t="s">
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="M30" s="78" t="s">
+      <c r="M30" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N30" s="78" t="s">
+      <c r="N30" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="O30" s="71" t="s">
+      <c r="O30" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="P30" s="65"/>
-      <c r="Q30" s="65"/>
-      <c r="R30" s="65"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
     </row>
     <row r="31" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="72"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="74"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="85"/>
       <c r="F31" s="65"/>
       <c r="G31" s="65"/>
       <c r="H31" s="65"/>
       <c r="I31" s="65"/>
       <c r="J31" s="40"/>
       <c r="K31" s="57"/>
-      <c r="L31" s="75"/>
-      <c r="M31" s="76"/>
-      <c r="N31" s="76"/>
-      <c r="O31" s="77"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="83"/>
       <c r="P31" s="65"/>
       <c r="Q31" s="65"/>
       <c r="R31" s="65"/>
     </row>
-    <row r="32" spans="1:19" s="84" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="79"/>
-      <c r="B32" s="80" t="s">
+    <row r="32" spans="1:19" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="75"/>
+      <c r="B32" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="81" t="s">
+      <c r="C32" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="81" t="s">
+      <c r="D32" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="82" t="s">
+      <c r="E32" s="90" t="s">
         <v>49</v>
       </c>
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="79"/>
-      <c r="L32" s="80" t="s">
+      <c r="J32" s="77"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="M32" s="81" t="s">
+      <c r="M32" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="N32" s="81" t="s">
+      <c r="N32" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="O32" s="82" t="s">
+      <c r="O32" s="90" t="s">
         <v>49</v>
       </c>
       <c r="P32" s="20"/>
       <c r="Q32" s="20"/>
       <c r="R32" s="20"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="19"/>
+    <row r="33" spans="1:18" s="78" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="75"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="84"/>
       <c r="F33" s="20"/>
       <c r="G33" s="20"/>
       <c r="H33" s="20"/>
       <c r="I33" s="20"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="19"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="92"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="76"/>
+      <c r="O33" s="84"/>
       <c r="P33" s="20"/>
       <c r="Q33" s="20"/>
       <c r="R33" s="20"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
+      <c r="A34" s="17" t="s">
+        <v>3</v>
+      </c>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
@@ -2315,15 +2344,13 @@
       <c r="I34" s="20"/>
       <c r="J34" s="29"/>
       <c r="K34" s="17"/>
-      <c r="L34" s="87" t="s">
-        <v>56</v>
-      </c>
-      <c r="M34" s="88"/>
-      <c r="N34" s="88"/>
-      <c r="O34" s="88"/>
-      <c r="P34" s="88"/>
-      <c r="Q34" s="88"/>
-      <c r="R34" s="88"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
@@ -2337,16 +2364,38 @@
       <c r="I35" s="20"/>
       <c r="J35" s="29"/>
       <c r="K35" s="17"/>
-      <c r="L35" s="88"/>
-      <c r="M35" s="88"/>
-      <c r="N35" s="88"/>
-      <c r="O35" s="88"/>
-      <c r="P35" s="88"/>
-      <c r="Q35" s="88"/>
-      <c r="R35" s="88"/>
+      <c r="L35" s="93" t="s">
+        <v>58</v>
+      </c>
+      <c r="M35" s="94"/>
+      <c r="N35" s="94"/>
+      <c r="O35" s="94"/>
+      <c r="P35" s="94"/>
+      <c r="Q35" s="94"/>
+      <c r="R35" s="94"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="17"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="94"/>
+      <c r="M36" s="94"/>
+      <c r="N36" s="94"/>
+      <c r="O36" s="94"/>
+      <c r="P36" s="94"/>
+      <c r="Q36" s="94"/>
+      <c r="R36" s="94"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2359,7 +2408,7 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="Q15:R15"/>
     <mergeCell ref="K11:R11"/>
-    <mergeCell ref="L34:R35"/>
+    <mergeCell ref="L35:R36"/>
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="M17:R17"/>
     <mergeCell ref="L28:N28"/>
